--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itga1.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H2">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.77686466666668</v>
+        <v>68.46613766666667</v>
       </c>
       <c r="N2">
-        <v>173.330594</v>
+        <v>205.398413</v>
       </c>
       <c r="O2">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="P2">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="Q2">
-        <v>5.407009361920223</v>
+        <v>0.7774558152508889</v>
       </c>
       <c r="R2">
-        <v>48.66308425728201</v>
+        <v>6.997102337258</v>
       </c>
       <c r="S2">
-        <v>0.5795494107546101</v>
+        <v>0.4719163120948675</v>
       </c>
       <c r="T2">
-        <v>0.57954941075461</v>
+        <v>0.4719163120948675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H3">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.278736333333335</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N3">
         <v>27.836209</v>
       </c>
       <c r="O3">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="P3">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
       <c r="Q3">
-        <v>0.8683443539307779</v>
+        <v>0.1053631439771111</v>
       </c>
       <c r="R3">
-        <v>7.815099185377002</v>
+        <v>0.948268295794</v>
       </c>
       <c r="S3">
-        <v>0.0930733470145044</v>
+        <v>0.06395551407683932</v>
       </c>
       <c r="T3">
-        <v>0.09307334701450438</v>
+        <v>0.06395551407683933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H4">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.637132</v>
+        <v>67.336226</v>
       </c>
       <c r="N4">
-        <v>97.91139600000001</v>
+        <v>202.008678</v>
       </c>
       <c r="O4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="P4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="Q4">
-        <v>3.054324240132</v>
+        <v>0.7646252916386667</v>
       </c>
       <c r="R4">
-        <v>27.48891816118801</v>
+        <v>6.881627624748</v>
       </c>
       <c r="S4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
       <c r="T4">
-        <v>0.3273772422308855</v>
+        <v>0.4641281738282933</v>
       </c>
     </row>
   </sheetData>
